--- a/model/ModelData/PEEP7/RR13/C_T0.01/PaO17/Data/Data.xlsx
+++ b/model/ModelData/PEEP7/RR13/C_T0.01/PaO17/Data/Data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Time</t>
   </si>
@@ -164,6 +164,21 @@
   <si>
     <t>Data4</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Qa(Airflow)</t>
+  </si>
 </sst>
 </file>
 
@@ -220,19 +235,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
